--- a/Tabelas Consulta/Tabelas/Tabela_Cetesb.xlsx
+++ b/Tabelas Consulta/Tabelas/Tabela_Cetesb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Programa Servmar/Teste Analise/Tabelas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub Servmar/ProjetoCanhadas/Tabelas Consulta/Tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D44AB85-348F-46AF-8C1C-5DE7AF61C268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5D44AB85-348F-46AF-8C1C-5DE7AF61C268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39591900-DE69-46AC-95AE-E3869A078099}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="324">
   <si>
     <t>Analyte</t>
   </si>
@@ -854,9 +854,6 @@
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>10000 (a)</t>
   </si>
   <si>
     <t>400</t>
@@ -1385,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,7 +1433,7 @@
         <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1476,7 +1473,7 @@
         <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1496,7 +1493,7 @@
         <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1556,7 +1553,7 @@
         <v>271</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1572,11 +1569,11 @@
       <c r="D9" t="s">
         <v>236</v>
       </c>
-      <c r="E9" t="s">
-        <v>272</v>
+      <c r="E9">
+        <v>10000</v>
       </c>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1593,7 +1590,7 @@
         <v>237</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
         <v>190</v>
@@ -1653,10 +1650,10 @@
         <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1673,10 +1670,10 @@
         <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1696,7 +1693,7 @@
         <v>178</v>
       </c>
       <c r="F15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1733,7 +1730,7 @@
         <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17" t="s">
         <v>249</v>
@@ -1752,11 +1749,11 @@
       <c r="D18" t="s">
         <v>243</v>
       </c>
-      <c r="E18" t="s">
-        <v>272</v>
+      <c r="E18">
+        <v>10000</v>
       </c>
       <c r="F18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1796,7 +1793,7 @@
         <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1813,7 +1810,7 @@
         <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F21" t="s">
         <v>237</v>
@@ -1833,10 +1830,10 @@
         <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1853,7 +1850,7 @@
         <v>238</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F23" t="s">
         <v>177</v>
@@ -1872,11 +1869,11 @@
       <c r="D24" t="s">
         <v>245</v>
       </c>
-      <c r="E24" t="s">
-        <v>272</v>
+      <c r="E24">
+        <v>10000</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1973,7 +1970,7 @@
         <v>223</v>
       </c>
       <c r="E29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F29">
         <v>0.4</v>
@@ -1993,10 +1990,10 @@
         <v>248</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2013,7 +2010,7 @@
         <v>223</v>
       </c>
       <c r="E31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F31">
         <v>0.04</v>
@@ -2053,7 +2050,7 @@
         <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F33">
         <v>0.4</v>
@@ -2073,7 +2070,7 @@
         <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" t="s">
         <v>244</v>
@@ -2093,7 +2090,7 @@
         <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F35" t="s">
         <v>253</v>
@@ -2113,10 +2110,10 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2153,7 +2150,7 @@
         <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F38" t="s">
         <v>237</v>
@@ -2173,7 +2170,7 @@
         <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F39" s="2">
         <v>20</v>
@@ -2193,7 +2190,7 @@
         <v>214</v>
       </c>
       <c r="E40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F40" s="2">
         <v>20</v>
@@ -2316,7 +2313,7 @@
         <v>256</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -2333,7 +2330,7 @@
         <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F47" t="s">
         <v>175</v>
@@ -2353,10 +2350,10 @@
         <v>253</v>
       </c>
       <c r="E48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -2396,7 +2393,7 @@
         <v>265</v>
       </c>
       <c r="F50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2433,7 +2430,7 @@
         <v>214</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F52" s="2">
         <v>50</v>
@@ -2456,7 +2453,7 @@
         <v>191</v>
       </c>
       <c r="F53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2473,7 +2470,7 @@
         <v>223</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F54" t="s">
         <v>249</v>
@@ -2493,10 +2490,10 @@
         <v>182</v>
       </c>
       <c r="E55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -2513,7 +2510,7 @@
         <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
         <v>237</v>
@@ -2536,7 +2533,7 @@
         <v>182</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2553,10 +2550,10 @@
         <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2576,7 +2573,7 @@
         <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2593,7 +2590,7 @@
         <v>258</v>
       </c>
       <c r="E60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F60">
         <v>10.5</v>
@@ -2613,7 +2610,7 @@
         <v>259</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F61" t="s">
         <v>248</v>
@@ -2633,10 +2630,10 @@
         <v>195</v>
       </c>
       <c r="E62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2676,7 +2673,7 @@
         <v>241</v>
       </c>
       <c r="F64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2693,10 +2690,10 @@
         <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2753,10 +2750,10 @@
         <v>235</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2773,7 +2770,7 @@
         <v>261</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F69" t="s">
         <v>250</v>
@@ -2793,7 +2790,7 @@
         <v>262</v>
       </c>
       <c r="E70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F70">
         <v>4.8</v>
@@ -2833,7 +2830,7 @@
         <v>206</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F72" t="s">
         <v>248</v>
@@ -2853,7 +2850,7 @@
         <v>223</v>
       </c>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F73" s="2">
         <v>0.03</v>
@@ -2873,7 +2870,7 @@
         <v>223</v>
       </c>
       <c r="E74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F74" s="2">
         <v>0.03</v>
@@ -2893,7 +2890,7 @@
         <v>263</v>
       </c>
       <c r="E75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F75">
         <v>0.6</v>
@@ -2933,7 +2930,7 @@
         <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F77" s="2">
         <v>20</v>
@@ -2953,7 +2950,7 @@
         <v>230</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
@@ -2993,7 +2990,7 @@
         <v>265</v>
       </c>
       <c r="E80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
@@ -3070,7 +3067,7 @@
         <v>211</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F84">
         <v>3.5</v>
@@ -3087,7 +3084,7 @@
         <v>256</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F85">
         <v>0.09</v>
@@ -3110,7 +3107,7 @@
         <v>238</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
